--- a/testdatabase.xlsx
+++ b/testdatabase.xlsx
@@ -219,15 +219,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -512,12 +512,12 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,16 +542,16 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>4897079690340</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7">
         <v>240</v>
       </c>
     </row>
@@ -559,16 +559,16 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>4897079690289</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7">
         <v>3100</v>
       </c>
     </row>
@@ -576,16 +576,16 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <v>4897079690494</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7">
         <v>2400</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <v>4897079690449</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7">
         <v>2400</v>
       </c>
     </row>
@@ -610,16 +610,16 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="9">
         <v>4897079690463</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7">
         <v>2100</v>
       </c>
     </row>
@@ -627,16 +627,16 @@
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>4897079690937</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7">
         <v>7800</v>
       </c>
     </row>
@@ -644,16 +644,16 @@
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="9">
         <v>4897079690951</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7">
         <v>6800</v>
       </c>
     </row>
@@ -661,16 +661,16 @@
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="9">
         <v>4897079690593</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7">
         <v>6200</v>
       </c>
     </row>
@@ -678,16 +678,16 @@
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="9">
         <v>4897079690371</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7">
         <v>4700</v>
       </c>
     </row>
@@ -695,16 +695,16 @@
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="9">
         <v>4897079690395</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7">
         <v>3700</v>
       </c>
     </row>
@@ -712,16 +712,16 @@
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="9">
         <v>4897079690401</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7">
         <v>3000</v>
       </c>
     </row>
@@ -729,16 +729,16 @@
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="9">
         <v>4897079690531</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7">
         <v>4700</v>
       </c>
     </row>
@@ -746,16 +746,16 @@
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="9">
         <v>4897079690548</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7">
         <v>4000</v>
       </c>
     </row>
@@ -763,16 +763,16 @@
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="9">
         <v>4897079690555</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
         <v>3700</v>
       </c>
     </row>
@@ -780,16 +780,16 @@
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="9">
         <v>4897079690562</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7">
         <v>3000</v>
       </c>
     </row>
@@ -797,16 +797,16 @@
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="9">
         <v>4897079690609</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7">
         <v>7800</v>
       </c>
     </row>
@@ -814,16 +814,16 @@
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="9">
         <v>4897079690029</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8">
         <v>4000</v>
       </c>
     </row>
@@ -831,16 +831,16 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="9">
         <v>4897079690036</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7">
         <v>3000</v>
       </c>
     </row>
@@ -848,16 +848,16 @@
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="9">
         <v>4897079690050</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="7">
         <v>2200</v>
       </c>
     </row>
@@ -865,16 +865,16 @@
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="9">
         <v>4897079690098</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7">
         <v>2200</v>
       </c>
     </row>
@@ -882,16 +882,16 @@
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="9">
         <v>4897079690111</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7">
         <v>2200</v>
       </c>
     </row>
@@ -899,16 +899,16 @@
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="9">
         <v>4897079690074</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="7">
         <v>1900</v>
       </c>
     </row>
@@ -916,16 +916,16 @@
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="9">
         <v>4897079690142</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7">
         <v>1600</v>
       </c>
     </row>
@@ -933,20 +933,21 @@
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="9">
         <v>4897079690043</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="7">
         <v>2400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>